--- a/RSVP_visual_now/Results/RSVP_spatial_cue_replication/RSVP_spatial_cue_replicationsubject_level_stats.xlsx
+++ b/RSVP_visual_now/Results/RSVP_spatial_cue_replication/RSVP_spatial_cue_replicationsubject_level_stats.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>subject</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>N_l_minus_r_10deg</t>
+  </si>
+  <si>
+    <t>past</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,7 +401,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +423,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -446,8 +452,11 @@
       <c r="H2" t="n">
         <v>0.5116279069767442</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -472,8 +481,11 @@
       <c r="H3" t="n">
         <v>0.1896551724137931</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -498,8 +510,11 @@
       <c r="H4" t="n">
         <v>-0.02830188679245283</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -524,8 +539,11 @@
       <c r="H5" t="n">
         <v>0.07216494845360824</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -550,8 +568,11 @@
       <c r="H6" t="n">
         <v>0.3958333333333333</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -576,8 +597,11 @@
       <c r="H7" t="n">
         <v>-0.2380952380952381</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -602,8 +626,11 @@
       <c r="H8" t="n">
         <v>0.2038834951456311</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -628,8 +655,11 @@
       <c r="H9" t="n">
         <v>0.1869158878504673</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -654,8 +684,11 @@
       <c r="H10" t="n">
         <v>0.3473684210526316</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
@@ -680,8 +713,11 @@
       <c r="H11" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
@@ -706,8 +742,11 @@
       <c r="H12" t="n">
         <v>0.3168316831683168</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
@@ -732,8 +771,11 @@
       <c r="H13" t="n">
         <v>0.405940594059406</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
@@ -758,8 +800,11 @@
       <c r="H14" t="n">
         <v>-0.2357723577235772</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
@@ -784,8 +829,11 @@
       <c r="H15" t="n">
         <v>0.2252252252252252</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
@@ -810,8 +858,11 @@
       <c r="H16" t="n">
         <v>-0.1463414634146341</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
@@ -836,8 +887,11 @@
       <c r="H17" t="n">
         <v>0.2268041237113402</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
@@ -862,8 +916,11 @@
       <c r="H18" t="n">
         <v>0.1491228070175439</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
@@ -888,8 +945,11 @@
       <c r="H19" t="n">
         <v>0.7529411764705882</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
@@ -914,8 +974,11 @@
       <c r="H20" t="n">
         <v>0.5978260869565217</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
@@ -940,8 +1003,11 @@
       <c r="H21" t="n">
         <v>0.1592920353982301</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
@@ -966,8 +1032,11 @@
       <c r="H22" t="n">
         <v>-0.03389830508474576</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
@@ -992,8 +1061,11 @@
       <c r="H23" t="n">
         <v>-0.1101694915254237</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
@@ -1018,8 +1090,11 @@
       <c r="H24" t="n">
         <v>-0.2711864406779661</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
@@ -1044,8 +1119,11 @@
       <c r="H25" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
@@ -1070,8 +1148,11 @@
       <c r="H26" t="n">
         <v>0.1650485436893204</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
@@ -1096,8 +1177,11 @@
       <c r="H27" t="n">
         <v>0.2330097087378641</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
@@ -1122,8 +1206,11 @@
       <c r="H28" t="n">
         <v>-0.481203007518797</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
@@ -1148,8 +1235,11 @@
       <c r="H29" t="n">
         <v>0.1203703703703704</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
@@ -1174,8 +1264,11 @@
       <c r="H30" t="n">
         <v>0.7866666666666666</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
@@ -1199,6 +1292,9 @@
       </c>
       <c r="H31" t="n">
         <v>0.06481481481481481</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
